--- a/2. WBS/wbs.xlsx
+++ b/2. WBS/wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redgu\OneDrive\Desktop\study\개인 공부\Re_View_Doc\2. WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD2545-37A1-4BF1-8AE9-83D7BA4E1660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C8171A-75C0-4451-BA99-6E4593C0C74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="150">
   <si>
     <t>팀명</t>
   </si>
@@ -377,9 +377,6 @@
     <t>주요 기능 개발 단계</t>
   </si>
   <si>
-    <t>리뷰 시스템 구현</t>
-  </si>
-  <si>
     <t>보상 체계 관련( 혜택 시스템 )</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
   </si>
   <si>
     <t>리뷰 검색,정렬 기능</t>
-  </si>
-  <si>
-    <t>상품 추천 기능 개발</t>
   </si>
   <si>
     <t>구매 기록 기반 상품 리뷰 추천</t>
@@ -803,7 +797,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,12 +844,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
         <bgColor rgb="FF9FC5E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE69138"/>
-        <bgColor rgb="FFE69138"/>
       </patternFill>
     </fill>
   </fills>
@@ -1080,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1140,23 +1128,14 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1171,167 +1150,146 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1551,10 +1509,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN67"/>
+  <dimension ref="A1:BN65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1569,31 +1527,31 @@
       <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
@@ -1639,25 +1597,25 @@
       <c r="BN1" s="6"/>
     </row>
     <row r="2" spans="1:66" ht="15" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="75" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1839,13 +1797,13 @@
       </c>
     </row>
     <row r="3" spans="1:66" ht="15" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="9">
         <v>45951</v>
       </c>
@@ -2025,20 +1983,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="15" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="77" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="36">
         <v>0</v>
       </c>
-      <c r="D4" s="92" t="str">
+      <c r="D4" s="66" t="str">
         <f>DATEDIF(F4,E4, "d")+1&amp;"일"</f>
         <v>1일</v>
       </c>
-      <c r="E4" s="88">
+      <c r="E4" s="64">
         <v>45951</v>
       </c>
       <c r="F4" s="14">
@@ -2106,18 +2064,18 @@
       <c r="BN4" s="18"/>
     </row>
     <row r="5" spans="1:66" ht="15" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="36">
         <v>0</v>
       </c>
-      <c r="D5" s="92" t="str">
+      <c r="D5" s="66" t="str">
         <f>DATEDIF(F5,E5, "d")+1&amp;"일"</f>
         <v>1일</v>
       </c>
-      <c r="E5" s="88">
+      <c r="E5" s="64">
         <v>45951</v>
       </c>
       <c r="F5" s="14">
@@ -2185,18 +2143,18 @@
       <c r="BN5" s="18"/>
     </row>
     <row r="6" spans="1:66" ht="15" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="36">
         <v>0</v>
       </c>
-      <c r="D6" s="92" t="str">
-        <f>DATEDIF(E6,F6, "d")+1&amp;"일"</f>
+      <c r="D6" s="66" t="str">
+        <f t="shared" ref="D6:D11" si="0">DATEDIF(E6,F6, "d")+1&amp;"일"</f>
         <v>4일</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="64">
         <v>45951</v>
       </c>
       <c r="F6" s="14">
@@ -2264,18 +2222,18 @@
       <c r="BN6" s="18"/>
     </row>
     <row r="7" spans="1:66" ht="15" customHeight="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="36">
         <v>0</v>
       </c>
-      <c r="D7" s="92" t="str">
-        <f>DATEDIF(E7,F7, "d")+1&amp;"일"</f>
+      <c r="D7" s="66" t="str">
+        <f t="shared" si="0"/>
         <v>11일</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="64">
         <v>45951</v>
       </c>
       <c r="F7" s="14">
@@ -2343,18 +2301,18 @@
       <c r="BN7" s="18"/>
     </row>
     <row r="8" spans="1:66" ht="15" customHeight="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="36">
         <v>0</v>
       </c>
-      <c r="D8" s="92" t="str">
-        <f>DATEDIF(E8,F8, "d")+1&amp;"일"</f>
+      <c r="D8" s="66" t="str">
+        <f t="shared" si="0"/>
         <v>2일</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="64">
         <v>45957</v>
       </c>
       <c r="F8" s="14">
@@ -2422,18 +2380,18 @@
       <c r="BN8" s="18"/>
     </row>
     <row r="9" spans="1:66" ht="15" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="36">
         <v>0</v>
       </c>
-      <c r="D9" s="92" t="str">
-        <f>DATEDIF(E9,F9, "d")+1&amp;"일"</f>
+      <c r="D9" s="66" t="str">
+        <f t="shared" si="0"/>
         <v>2일</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="64">
         <v>45957</v>
       </c>
       <c r="F9" s="14">
@@ -2501,18 +2459,18 @@
       <c r="BN9" s="18"/>
     </row>
     <row r="10" spans="1:66" ht="15" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="36">
         <v>0</v>
       </c>
-      <c r="D10" s="92" t="str">
-        <f>DATEDIF(E10,F10, "d")+1&amp;"일"</f>
+      <c r="D10" s="66" t="str">
+        <f t="shared" si="0"/>
         <v>1일</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="64">
         <v>45957</v>
       </c>
       <c r="F10" s="14">
@@ -2580,18 +2538,18 @@
       <c r="BN10" s="18"/>
     </row>
     <row r="11" spans="1:66" ht="15" customHeight="1">
-      <c r="A11" s="50"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="36">
         <v>0</v>
       </c>
-      <c r="D11" s="92" t="str">
-        <f>DATEDIF(E11,F11, "d")+1&amp;"일"</f>
+      <c r="D11" s="66" t="str">
+        <f t="shared" si="0"/>
         <v>1일</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="64">
         <v>45957</v>
       </c>
       <c r="F11" s="14">
@@ -2659,16 +2617,16 @@
       <c r="BN11" s="18"/>
     </row>
     <row r="12" spans="1:66" ht="15" customHeight="1">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -2731,18 +2689,18 @@
       <c r="BN12" s="18"/>
     </row>
     <row r="13" spans="1:66" ht="15" customHeight="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="36">
         <v>0</v>
       </c>
-      <c r="D13" s="92" t="str">
+      <c r="D13" s="66" t="str">
         <f>DATEDIF(E13,F13, "d")+1&amp;"일"</f>
         <v>1일</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="64">
         <v>45958</v>
       </c>
       <c r="F13" s="14">
@@ -2810,18 +2768,18 @@
       <c r="BN13" s="18"/>
     </row>
     <row r="14" spans="1:66" ht="15" customHeight="1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="36">
         <v>0</v>
       </c>
-      <c r="D14" s="92" t="str">
+      <c r="D14" s="66" t="str">
         <f>DATEDIF(E14,F14, "d")+1&amp;"일"</f>
         <v>1일</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="64">
         <v>45958</v>
       </c>
       <c r="F14" s="14">
@@ -2889,14 +2847,14 @@
       <c r="BN14" s="18"/>
     </row>
     <row r="15" spans="1:66" ht="15" customHeight="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="15"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -2959,18 +2917,18 @@
       <c r="BN15" s="18"/>
     </row>
     <row r="16" spans="1:66" ht="15" customHeight="1">
-      <c r="A16" s="52"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="36">
         <v>0</v>
       </c>
-      <c r="D16" s="92" t="str">
-        <f>DATEDIF(E16,F16, "d")+1&amp;"일"</f>
+      <c r="D16" s="66" t="str">
+        <f t="shared" ref="D16:D28" si="1">DATEDIF(E16,F16, "d")+1&amp;"일"</f>
         <v>1일</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="64">
         <v>45964</v>
       </c>
       <c r="F16" s="14">
@@ -3038,18 +2996,18 @@
       <c r="BN16" s="18"/>
     </row>
     <row r="17" spans="1:66" ht="15" customHeight="1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="36">
         <v>0</v>
       </c>
-      <c r="D17" s="92" t="str">
-        <f>DATEDIF(E17,F17, "d")+1&amp;"일"</f>
+      <c r="D17" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>7일</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="64">
         <v>45964</v>
       </c>
       <c r="F17" s="14">
@@ -3117,18 +3075,18 @@
       <c r="BN17" s="18"/>
     </row>
     <row r="18" spans="1:66" ht="15" customHeight="1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="36">
         <v>0</v>
       </c>
-      <c r="D18" s="92" t="str">
-        <f>DATEDIF(E18,F18, "d")+1&amp;"일"</f>
+      <c r="D18" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>7일</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="64">
         <v>45964</v>
       </c>
       <c r="F18" s="14">
@@ -3196,18 +3154,18 @@
       <c r="BN18" s="18"/>
     </row>
     <row r="19" spans="1:66" ht="15" customHeight="1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="36">
         <v>0</v>
       </c>
-      <c r="D19" s="92" t="str">
-        <f>DATEDIF(E19,F19, "d")+1&amp;"일"</f>
+      <c r="D19" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>7일</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="64">
         <v>45964</v>
       </c>
       <c r="F19" s="14">
@@ -3275,18 +3233,18 @@
       <c r="BN19" s="18"/>
     </row>
     <row r="20" spans="1:66" ht="15" customHeight="1">
-      <c r="A20" s="52"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="36">
         <v>0</v>
       </c>
-      <c r="D20" s="92" t="str">
-        <f>DATEDIF(E20,F20, "d")+1&amp;"일"</f>
+      <c r="D20" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>3일</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="64">
         <v>45971</v>
       </c>
       <c r="F20" s="14">
@@ -3354,18 +3312,18 @@
       <c r="BN20" s="18"/>
     </row>
     <row r="21" spans="1:66" ht="15" customHeight="1">
-      <c r="A21" s="52"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="36">
         <v>0</v>
       </c>
-      <c r="D21" s="92" t="str">
-        <f>DATEDIF(E21,F21, "d")+1&amp;"일"</f>
+      <c r="D21" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>7일</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="64">
         <v>45982</v>
       </c>
       <c r="F21" s="14">
@@ -3433,18 +3391,18 @@
       <c r="BN21" s="18"/>
     </row>
     <row r="22" spans="1:66" ht="15" customHeight="1">
-      <c r="A22" s="52"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="36">
         <v>0</v>
       </c>
-      <c r="D22" s="92" t="str">
-        <f>DATEDIF(E22,F22, "d")+1&amp;"일"</f>
+      <c r="D22" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>7일</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="64">
         <v>45973</v>
       </c>
       <c r="F22" s="14">
@@ -3512,18 +3470,18 @@
       <c r="BN22" s="18"/>
     </row>
     <row r="23" spans="1:66" ht="15" customHeight="1">
-      <c r="A23" s="52"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="36">
         <v>0</v>
       </c>
-      <c r="D23" s="92" t="str">
-        <f>DATEDIF(E23,F23, "d")+1&amp;"일"</f>
+      <c r="D23" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>7일</v>
       </c>
-      <c r="E23" s="88">
+      <c r="E23" s="64">
         <v>45964</v>
       </c>
       <c r="F23" s="14">
@@ -3591,19 +3549,23 @@
       <c r="BN23" s="18"/>
     </row>
     <row r="24" spans="1:66" ht="15" customHeight="1">
-      <c r="A24" s="52"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="36">
         <v>0</v>
       </c>
-      <c r="D24" s="92" t="str">
-        <f>DATEDIF(E24,F24, "d")+1&amp;"일"</f>
-        <v>1일</v>
-      </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="29"/>
+      <c r="D24" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>14일</v>
+      </c>
+      <c r="E24" s="64">
+        <v>45964</v>
+      </c>
+      <c r="F24" s="14">
+        <v>45977</v>
+      </c>
       <c r="G24" s="15"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -3666,18 +3628,18 @@
       <c r="BN24" s="18"/>
     </row>
     <row r="25" spans="1:66" ht="15" customHeight="1">
-      <c r="A25" s="52"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="36">
         <v>0</v>
       </c>
-      <c r="D25" s="92" t="str">
-        <f>DATEDIF(E25,F25, "d")+1&amp;"일"</f>
+      <c r="D25" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>14일</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="64">
         <v>45964</v>
       </c>
       <c r="F25" s="14">
@@ -3745,18 +3707,18 @@
       <c r="BN25" s="18"/>
     </row>
     <row r="26" spans="1:66" ht="15" customHeight="1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="36">
         <v>0</v>
       </c>
-      <c r="D26" s="92" t="str">
-        <f>DATEDIF(E26,F26, "d")+1&amp;"일"</f>
+      <c r="D26" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>7일</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="64">
         <v>45978</v>
       </c>
       <c r="F26" s="14">
@@ -3824,18 +3786,18 @@
       <c r="BN26" s="18"/>
     </row>
     <row r="27" spans="1:66" ht="15" customHeight="1">
-      <c r="A27" s="52"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="36">
         <v>0</v>
       </c>
-      <c r="D27" s="92" t="str">
-        <f>DATEDIF(E27,F27, "d")+1&amp;"일"</f>
+      <c r="D27" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>7일</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="64">
         <v>45978</v>
       </c>
       <c r="F27" s="14">
@@ -3903,18 +3865,18 @@
       <c r="BN27" s="18"/>
     </row>
     <row r="28" spans="1:66" ht="15" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="72"/>
+      <c r="B28" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="D28" s="92" t="str">
-        <f>DATEDIF(E28,F28, "d")+1&amp;"일"</f>
+      <c r="D28" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>7일</v>
       </c>
-      <c r="E28" s="88">
+      <c r="E28" s="64">
         <v>45985</v>
       </c>
       <c r="F28" s="14">
@@ -3982,14 +3944,14 @@
       <c r="BN28" s="18"/>
     </row>
     <row r="29" spans="1:66" ht="15" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="72"/>
+      <c r="B29" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="70"/>
       <c r="G29" s="15"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -4051,15 +4013,24 @@
       <c r="BM29" s="18"/>
       <c r="BN29" s="18"/>
     </row>
-    <row r="30" spans="1:66" ht="15" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="31" t="s">
+    <row r="30" spans="1:66">
+      <c r="A30" s="72"/>
+      <c r="B30" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="42"/>
+      <c r="C30" s="63">
+        <v>0</v>
+      </c>
+      <c r="D30" s="66" t="str">
+        <f>DATEDIF(E30,F30, "d")+1&amp;"일"</f>
+        <v>7일</v>
+      </c>
+      <c r="E30" s="65">
+        <v>45982</v>
+      </c>
+      <c r="F30" s="30">
+        <v>45988</v>
+      </c>
       <c r="G30" s="15"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -4122,21 +4093,21 @@
       <c r="BN30" s="18"/>
     </row>
     <row r="31" spans="1:66">
-      <c r="A31" s="52"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="87">
+      <c r="C31" s="63">
         <v>0</v>
       </c>
-      <c r="D31" s="92" t="str">
+      <c r="D31" s="66" t="str">
         <f>DATEDIF(E31,F31, "d")+1&amp;"일"</f>
         <v>7일</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31" s="65">
         <v>45982</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="30">
         <v>45988</v>
       </c>
       <c r="G31" s="15"/>
@@ -4200,1362 +4171,1149 @@
       <c r="BM31" s="18"/>
       <c r="BN31" s="18"/>
     </row>
-    <row r="32" spans="1:66">
-      <c r="A32" s="52"/>
-      <c r="B32" s="25" t="s">
+    <row r="32" spans="1:66" ht="15" customHeight="1">
+      <c r="A32" s="72"/>
+      <c r="B32" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="87">
+      <c r="C32" s="36">
         <v>0</v>
       </c>
-      <c r="D32" s="92" t="str">
+      <c r="D32" s="66" t="str">
         <f>DATEDIF(E32,F32, "d")+1&amp;"일"</f>
         <v>7일</v>
       </c>
-      <c r="E32" s="89">
+      <c r="E32" s="65">
         <v>45982</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="30">
         <v>45988</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
-      <c r="AI32" s="18"/>
-      <c r="AJ32" s="18"/>
-      <c r="AK32" s="18"/>
-      <c r="AL32" s="18"/>
-      <c r="AM32" s="18"/>
-      <c r="AN32" s="18"/>
-      <c r="AO32" s="18"/>
-      <c r="AP32" s="18"/>
-      <c r="AQ32" s="18"/>
-      <c r="AR32" s="18"/>
-      <c r="AS32" s="18"/>
-      <c r="AT32" s="18"/>
-      <c r="AU32" s="18"/>
-      <c r="AV32" s="18"/>
-      <c r="AW32" s="18"/>
-      <c r="AX32" s="18"/>
-      <c r="AY32" s="18"/>
-      <c r="AZ32" s="18"/>
-      <c r="BA32" s="18"/>
-      <c r="BB32" s="18"/>
-      <c r="BC32" s="18"/>
-      <c r="BD32" s="18"/>
-      <c r="BE32" s="18"/>
-      <c r="BF32" s="18"/>
-      <c r="BG32" s="18"/>
-      <c r="BH32" s="18"/>
-      <c r="BI32" s="18"/>
-      <c r="BJ32" s="18"/>
-      <c r="BK32" s="18"/>
-      <c r="BL32" s="18"/>
-      <c r="BM32" s="18"/>
-      <c r="BN32" s="18"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
+      <c r="AO32" s="31"/>
+      <c r="AP32" s="31"/>
+      <c r="AQ32" s="31"/>
+      <c r="AR32" s="31"/>
+      <c r="AS32" s="31"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="31"/>
+      <c r="AV32" s="31"/>
+      <c r="AW32" s="31"/>
+      <c r="AX32" s="31"/>
+      <c r="AY32" s="31"/>
+      <c r="AZ32" s="31"/>
+      <c r="BA32" s="31"/>
+      <c r="BB32" s="31"/>
+      <c r="BC32" s="31"/>
+      <c r="BD32" s="31"/>
+      <c r="BE32" s="31"/>
+      <c r="BF32" s="31"/>
+      <c r="BG32" s="31"/>
+      <c r="BH32" s="31"/>
+      <c r="BI32" s="31"/>
+      <c r="BJ32" s="31"/>
+      <c r="BK32" s="31"/>
+      <c r="BL32" s="31"/>
+      <c r="BM32" s="31"/>
+      <c r="BN32" s="31"/>
     </row>
     <row r="33" spans="1:66" ht="15" customHeight="1">
-      <c r="A33" s="52"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="36">
         <v>0</v>
       </c>
-      <c r="D33" s="92" t="str">
+      <c r="D33" s="66" t="str">
         <f>DATEDIF(E33,F33, "d")+1&amp;"일"</f>
+        <v>7일</v>
+      </c>
+      <c r="E33" s="64">
+        <v>45982</v>
+      </c>
+      <c r="F33" s="14">
+        <v>45988</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="31"/>
+      <c r="AP33" s="31"/>
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="31"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="31"/>
+      <c r="AW33" s="31"/>
+      <c r="AX33" s="31"/>
+      <c r="AY33" s="31"/>
+      <c r="AZ33" s="31"/>
+      <c r="BA33" s="31"/>
+      <c r="BB33" s="31"/>
+      <c r="BC33" s="31"/>
+      <c r="BD33" s="31"/>
+      <c r="BE33" s="31"/>
+      <c r="BF33" s="31"/>
+      <c r="BG33" s="31"/>
+      <c r="BH33" s="31"/>
+      <c r="BI33" s="31"/>
+      <c r="BJ33" s="31"/>
+      <c r="BK33" s="31"/>
+      <c r="BL33" s="31"/>
+      <c r="BM33" s="31"/>
+      <c r="BN33" s="31"/>
+    </row>
+    <row r="34" spans="1:66" ht="15" customHeight="1">
+      <c r="A34" s="72"/>
+      <c r="B34" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="36">
+        <v>0</v>
+      </c>
+      <c r="D34" s="66" t="str">
+        <f>DATEDIF(E34,F34, "d")+1&amp;"일"</f>
+        <v>7일</v>
+      </c>
+      <c r="E34" s="64">
+        <v>45982</v>
+      </c>
+      <c r="F34" s="14">
+        <v>45988</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="32"/>
+      <c r="AQ34" s="32"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="32"/>
+      <c r="AT34" s="32"/>
+      <c r="AU34" s="32"/>
+      <c r="AV34" s="32"/>
+      <c r="AW34" s="32"/>
+      <c r="AX34" s="32"/>
+      <c r="AY34" s="32"/>
+      <c r="AZ34" s="32"/>
+      <c r="BA34" s="32"/>
+      <c r="BB34" s="32"/>
+      <c r="BC34" s="32"/>
+      <c r="BD34" s="32"/>
+      <c r="BE34" s="32"/>
+      <c r="BF34" s="32"/>
+      <c r="BG34" s="32"/>
+      <c r="BH34" s="32"/>
+      <c r="BI34" s="32"/>
+      <c r="BJ34" s="32"/>
+      <c r="BK34" s="32"/>
+      <c r="BL34" s="32"/>
+      <c r="BM34" s="32"/>
+      <c r="BN34" s="32"/>
+    </row>
+    <row r="35" spans="1:66" ht="15" customHeight="1">
+      <c r="A35" s="72"/>
+      <c r="B35" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="36">
+        <v>0</v>
+      </c>
+      <c r="D35" s="66" t="str">
+        <f>DATEDIF(E35,F35, "d")+1&amp;"일"</f>
+        <v>32일</v>
+      </c>
+      <c r="E35" s="64">
+        <v>45964</v>
+      </c>
+      <c r="F35" s="14">
+        <v>45995</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="32"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="32"/>
+      <c r="AO35" s="32"/>
+      <c r="AP35" s="32"/>
+      <c r="AQ35" s="32"/>
+      <c r="AR35" s="32"/>
+      <c r="AS35" s="32"/>
+      <c r="AT35" s="32"/>
+      <c r="AU35" s="32"/>
+      <c r="AV35" s="32"/>
+      <c r="AW35" s="32"/>
+      <c r="AX35" s="32"/>
+      <c r="AY35" s="32"/>
+      <c r="AZ35" s="32"/>
+      <c r="BA35" s="32"/>
+      <c r="BB35" s="32"/>
+      <c r="BC35" s="32"/>
+      <c r="BD35" s="32"/>
+      <c r="BE35" s="32"/>
+      <c r="BF35" s="32"/>
+      <c r="BG35" s="32"/>
+      <c r="BH35" s="32"/>
+      <c r="BI35" s="32"/>
+      <c r="BJ35" s="32"/>
+      <c r="BK35" s="32"/>
+      <c r="BL35" s="32"/>
+      <c r="BM35" s="32"/>
+      <c r="BN35" s="32"/>
+    </row>
+    <row r="36" spans="1:66">
+      <c r="A36" s="72"/>
+      <c r="B36" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="66" t="str">
+        <f>DATEDIF(E36,F36, "d")+1&amp;"일"</f>
         <v>1일</v>
       </c>
-      <c r="E33" s="88"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="33"/>
-      <c r="AJ33" s="33"/>
-      <c r="AK33" s="33"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="33"/>
-      <c r="AN33" s="33"/>
-      <c r="AO33" s="33"/>
-      <c r="AP33" s="33"/>
-      <c r="AQ33" s="33"/>
-      <c r="AR33" s="33"/>
-      <c r="AS33" s="33"/>
-      <c r="AT33" s="33"/>
-      <c r="AU33" s="33"/>
-      <c r="AV33" s="33"/>
-      <c r="AW33" s="33"/>
-      <c r="AX33" s="33"/>
-      <c r="AY33" s="33"/>
-      <c r="AZ33" s="33"/>
-      <c r="BA33" s="33"/>
-      <c r="BB33" s="33"/>
-      <c r="BC33" s="33"/>
-      <c r="BD33" s="33"/>
-      <c r="BE33" s="33"/>
-      <c r="BF33" s="33"/>
-      <c r="BG33" s="33"/>
-      <c r="BH33" s="33"/>
-      <c r="BI33" s="33"/>
-      <c r="BJ33" s="33"/>
-      <c r="BK33" s="33"/>
-      <c r="BL33" s="33"/>
-      <c r="BM33" s="33"/>
-      <c r="BN33" s="33"/>
-    </row>
-    <row r="34" spans="1:66" ht="15" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="33"/>
-      <c r="AO34" s="33"/>
-      <c r="AP34" s="33"/>
-      <c r="AQ34" s="33"/>
-      <c r="AR34" s="33"/>
-      <c r="AS34" s="33"/>
-      <c r="AT34" s="33"/>
-      <c r="AU34" s="33"/>
-      <c r="AV34" s="33"/>
-      <c r="AW34" s="33"/>
-      <c r="AX34" s="33"/>
-      <c r="AY34" s="33"/>
-      <c r="AZ34" s="33"/>
-      <c r="BA34" s="33"/>
-      <c r="BB34" s="33"/>
-      <c r="BC34" s="33"/>
-      <c r="BD34" s="33"/>
-      <c r="BE34" s="33"/>
-      <c r="BF34" s="33"/>
-      <c r="BG34" s="33"/>
-      <c r="BH34" s="33"/>
-      <c r="BI34" s="33"/>
-      <c r="BJ34" s="33"/>
-      <c r="BK34" s="33"/>
-      <c r="BL34" s="33"/>
-      <c r="BM34" s="33"/>
-      <c r="BN34" s="33"/>
-    </row>
-    <row r="35" spans="1:66" ht="15" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="39">
+      <c r="E36" s="64">
+        <v>45996</v>
+      </c>
+      <c r="F36" s="14">
+        <v>45996</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="32"/>
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="32"/>
+      <c r="AR36" s="32"/>
+      <c r="AS36" s="32"/>
+      <c r="AT36" s="32"/>
+      <c r="AU36" s="32"/>
+      <c r="AV36" s="32"/>
+      <c r="AW36" s="32"/>
+      <c r="AX36" s="32"/>
+      <c r="AY36" s="32"/>
+      <c r="AZ36" s="32"/>
+      <c r="BA36" s="32"/>
+      <c r="BB36" s="32"/>
+      <c r="BC36" s="32"/>
+      <c r="BD36" s="32"/>
+      <c r="BE36" s="32"/>
+      <c r="BF36" s="32"/>
+      <c r="BG36" s="32"/>
+      <c r="BH36" s="32"/>
+      <c r="BI36" s="32"/>
+      <c r="BJ36" s="32"/>
+      <c r="BK36" s="32"/>
+      <c r="BL36" s="32"/>
+      <c r="BM36" s="32"/>
+      <c r="BN36" s="32"/>
+    </row>
+    <row r="37" spans="1:66">
+      <c r="A37" s="72"/>
+      <c r="B37" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="36">
         <v>0</v>
       </c>
-      <c r="D35" s="92" t="str">
-        <f>DATEDIF(E35,F35, "d")+1&amp;"일"</f>
-        <v>7일</v>
-      </c>
-      <c r="E35" s="88">
-        <v>45982</v>
-      </c>
-      <c r="F35" s="14">
-        <v>45988</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="33"/>
-      <c r="AJ35" s="33"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="33"/>
-      <c r="AN35" s="33"/>
-      <c r="AO35" s="33"/>
-      <c r="AP35" s="33"/>
-      <c r="AQ35" s="33"/>
-      <c r="AR35" s="33"/>
-      <c r="AS35" s="33"/>
-      <c r="AT35" s="33"/>
-      <c r="AU35" s="33"/>
-      <c r="AV35" s="33"/>
-      <c r="AW35" s="33"/>
-      <c r="AX35" s="33"/>
-      <c r="AY35" s="33"/>
-      <c r="AZ35" s="33"/>
-      <c r="BA35" s="33"/>
-      <c r="BB35" s="33"/>
-      <c r="BC35" s="33"/>
-      <c r="BD35" s="33"/>
-      <c r="BE35" s="33"/>
-      <c r="BF35" s="33"/>
-      <c r="BG35" s="33"/>
-      <c r="BH35" s="33"/>
-      <c r="BI35" s="33"/>
-      <c r="BJ35" s="33"/>
-      <c r="BK35" s="33"/>
-      <c r="BL35" s="33"/>
-      <c r="BM35" s="33"/>
-      <c r="BN35" s="33"/>
-    </row>
-    <row r="36" spans="1:66" ht="15" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="39">
+      <c r="D37" s="66" t="str">
+        <f>DATEDIF(E37,F37, "d")+1&amp;"일"</f>
+        <v>2일</v>
+      </c>
+      <c r="E37" s="64">
+        <v>45997</v>
+      </c>
+      <c r="F37" s="14">
+        <v>45998</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="32"/>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32"/>
+      <c r="AN37" s="32"/>
+      <c r="AO37" s="32"/>
+      <c r="AP37" s="32"/>
+      <c r="AQ37" s="32"/>
+      <c r="AR37" s="32"/>
+      <c r="AS37" s="32"/>
+      <c r="AT37" s="32"/>
+      <c r="AU37" s="32"/>
+      <c r="AV37" s="32"/>
+      <c r="AW37" s="32"/>
+      <c r="AX37" s="32"/>
+      <c r="AY37" s="32"/>
+      <c r="AZ37" s="32"/>
+      <c r="BA37" s="32"/>
+      <c r="BB37" s="32"/>
+      <c r="BC37" s="32"/>
+      <c r="BD37" s="32"/>
+      <c r="BE37" s="32"/>
+      <c r="BF37" s="32"/>
+      <c r="BG37" s="32"/>
+      <c r="BH37" s="32"/>
+      <c r="BI37" s="32"/>
+      <c r="BJ37" s="32"/>
+      <c r="BK37" s="32"/>
+      <c r="BL37" s="32"/>
+      <c r="BM37" s="32"/>
+      <c r="BN37" s="32"/>
+    </row>
+    <row r="38" spans="1:66">
+      <c r="A38" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="32"/>
+      <c r="AK38" s="32"/>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32"/>
+      <c r="AN38" s="32"/>
+      <c r="AO38" s="32"/>
+      <c r="AP38" s="32"/>
+      <c r="AQ38" s="32"/>
+      <c r="AR38" s="32"/>
+      <c r="AS38" s="32"/>
+      <c r="AT38" s="32"/>
+      <c r="AU38" s="32"/>
+      <c r="AV38" s="32"/>
+      <c r="AW38" s="32"/>
+      <c r="AX38" s="32"/>
+      <c r="AY38" s="32"/>
+      <c r="AZ38" s="32"/>
+      <c r="BA38" s="32"/>
+      <c r="BB38" s="32"/>
+      <c r="BC38" s="32"/>
+      <c r="BD38" s="32"/>
+      <c r="BE38" s="32"/>
+      <c r="BF38" s="32"/>
+      <c r="BG38" s="32"/>
+      <c r="BH38" s="32"/>
+      <c r="BI38" s="32"/>
+      <c r="BJ38" s="32"/>
+      <c r="BK38" s="32"/>
+      <c r="BL38" s="32"/>
+      <c r="BM38" s="32"/>
+      <c r="BN38" s="32"/>
+    </row>
+    <row r="39" spans="1:66">
+      <c r="A39" s="81"/>
+      <c r="B39" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="36">
         <v>0</v>
       </c>
-      <c r="D36" s="92" t="str">
-        <f>DATEDIF(E36,F36, "d")+1&amp;"일"</f>
-        <v>7일</v>
-      </c>
-      <c r="E36" s="88">
-        <v>45982</v>
-      </c>
-      <c r="F36" s="14">
-        <v>45988</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="35"/>
-      <c r="AI36" s="35"/>
-      <c r="AJ36" s="35"/>
-      <c r="AK36" s="35"/>
-      <c r="AL36" s="35"/>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="35"/>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="35"/>
-      <c r="AQ36" s="35"/>
-      <c r="AR36" s="35"/>
-      <c r="AS36" s="35"/>
-      <c r="AT36" s="35"/>
-      <c r="AU36" s="35"/>
-      <c r="AV36" s="35"/>
-      <c r="AW36" s="35"/>
-      <c r="AX36" s="35"/>
-      <c r="AY36" s="35"/>
-      <c r="AZ36" s="35"/>
-      <c r="BA36" s="35"/>
-      <c r="BB36" s="35"/>
-      <c r="BC36" s="35"/>
-      <c r="BD36" s="35"/>
-      <c r="BE36" s="35"/>
-      <c r="BF36" s="35"/>
-      <c r="BG36" s="35"/>
-      <c r="BH36" s="35"/>
-      <c r="BI36" s="35"/>
-      <c r="BJ36" s="35"/>
-      <c r="BK36" s="35"/>
-      <c r="BL36" s="35"/>
-      <c r="BM36" s="35"/>
-      <c r="BN36" s="35"/>
-    </row>
-    <row r="37" spans="1:66" ht="15" customHeight="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="39">
+      <c r="D39" s="66" t="str">
+        <f>DATEDIF(E39,F39, "d")+1&amp;"일"</f>
+        <v>10일</v>
+      </c>
+      <c r="E39" s="64">
+        <v>45999</v>
+      </c>
+      <c r="F39" s="14">
+        <v>46008</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="32"/>
+      <c r="AG39" s="32"/>
+      <c r="AH39" s="32"/>
+      <c r="AI39" s="32"/>
+      <c r="AJ39" s="32"/>
+      <c r="AK39" s="32"/>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="32"/>
+      <c r="AN39" s="32"/>
+      <c r="AO39" s="32"/>
+      <c r="AP39" s="32"/>
+      <c r="AQ39" s="32"/>
+      <c r="AR39" s="32"/>
+      <c r="AS39" s="32"/>
+      <c r="AT39" s="32"/>
+      <c r="AU39" s="32"/>
+      <c r="AV39" s="32"/>
+      <c r="AW39" s="32"/>
+      <c r="AX39" s="32"/>
+      <c r="AY39" s="32"/>
+      <c r="AZ39" s="32"/>
+      <c r="BA39" s="32"/>
+      <c r="BB39" s="32"/>
+      <c r="BC39" s="32"/>
+      <c r="BD39" s="32"/>
+      <c r="BE39" s="32"/>
+      <c r="BF39" s="32"/>
+      <c r="BG39" s="32"/>
+      <c r="BH39" s="32"/>
+      <c r="BI39" s="32"/>
+      <c r="BJ39" s="32"/>
+      <c r="BK39" s="32"/>
+      <c r="BL39" s="32"/>
+      <c r="BM39" s="32"/>
+      <c r="BN39" s="32"/>
+    </row>
+    <row r="40" spans="1:66">
+      <c r="A40" s="81"/>
+      <c r="B40" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="36">
         <v>0</v>
       </c>
-      <c r="D37" s="92" t="str">
-        <f>DATEDIF(E37,F37, "d")+1&amp;"일"</f>
-        <v>32일</v>
-      </c>
-      <c r="E37" s="88">
-        <v>45964</v>
-      </c>
-      <c r="F37" s="14">
-        <v>45995</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="35"/>
-      <c r="AQ37" s="35"/>
-      <c r="AR37" s="35"/>
-      <c r="AS37" s="35"/>
-      <c r="AT37" s="35"/>
-      <c r="AU37" s="35"/>
-      <c r="AV37" s="35"/>
-      <c r="AW37" s="35"/>
-      <c r="AX37" s="35"/>
-      <c r="AY37" s="35"/>
-      <c r="AZ37" s="35"/>
-      <c r="BA37" s="35"/>
-      <c r="BB37" s="35"/>
-      <c r="BC37" s="35"/>
-      <c r="BD37" s="35"/>
-      <c r="BE37" s="35"/>
-      <c r="BF37" s="35"/>
-      <c r="BG37" s="35"/>
-      <c r="BH37" s="35"/>
-      <c r="BI37" s="35"/>
-      <c r="BJ37" s="35"/>
-      <c r="BK37" s="35"/>
-      <c r="BL37" s="35"/>
-      <c r="BM37" s="35"/>
-      <c r="BN37" s="35"/>
-    </row>
-    <row r="38" spans="1:66">
-      <c r="A38" s="52"/>
-      <c r="B38" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="39">
+      <c r="D40" s="66" t="str">
+        <f>DATEDIF(E40,F40, "d")+1&amp;"일"</f>
+        <v>10일</v>
+      </c>
+      <c r="E40" s="64">
+        <v>45999</v>
+      </c>
+      <c r="F40" s="14">
+        <v>46008</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="32"/>
+      <c r="AO40" s="32"/>
+      <c r="AP40" s="32"/>
+      <c r="AQ40" s="32"/>
+      <c r="AR40" s="32"/>
+      <c r="AS40" s="32"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="32"/>
+      <c r="AV40" s="32"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="32"/>
+      <c r="AY40" s="32"/>
+      <c r="AZ40" s="32"/>
+      <c r="BA40" s="32"/>
+      <c r="BB40" s="32"/>
+      <c r="BC40" s="32"/>
+      <c r="BD40" s="32"/>
+      <c r="BE40" s="32"/>
+      <c r="BF40" s="32"/>
+      <c r="BG40" s="32"/>
+      <c r="BH40" s="32"/>
+      <c r="BI40" s="32"/>
+      <c r="BJ40" s="32"/>
+      <c r="BK40" s="32"/>
+      <c r="BL40" s="32"/>
+      <c r="BM40" s="32"/>
+      <c r="BN40" s="32"/>
+    </row>
+    <row r="41" spans="1:66">
+      <c r="A41" s="81"/>
+      <c r="B41" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="36">
         <v>0</v>
       </c>
-      <c r="D38" s="92" t="str">
-        <f>DATEDIF(E38,F38, "d")+1&amp;"일"</f>
+      <c r="D41" s="66" t="str">
+        <f>DATEDIF(E41,F41, "d")+1&amp;"일"</f>
         <v>1일</v>
       </c>
-      <c r="E38" s="88">
-        <v>45996</v>
-      </c>
-      <c r="F38" s="14">
-        <v>45996</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="35"/>
-      <c r="AQ38" s="35"/>
-      <c r="AR38" s="35"/>
-      <c r="AS38" s="35"/>
-      <c r="AT38" s="35"/>
-      <c r="AU38" s="35"/>
-      <c r="AV38" s="35"/>
-      <c r="AW38" s="35"/>
-      <c r="AX38" s="35"/>
-      <c r="AY38" s="35"/>
-      <c r="AZ38" s="35"/>
-      <c r="BA38" s="35"/>
-      <c r="BB38" s="35"/>
-      <c r="BC38" s="35"/>
-      <c r="BD38" s="35"/>
-      <c r="BE38" s="35"/>
-      <c r="BF38" s="35"/>
-      <c r="BG38" s="35"/>
-      <c r="BH38" s="35"/>
-      <c r="BI38" s="35"/>
-      <c r="BJ38" s="35"/>
-      <c r="BK38" s="35"/>
-      <c r="BL38" s="35"/>
-      <c r="BM38" s="35"/>
-      <c r="BN38" s="35"/>
-    </row>
-    <row r="39" spans="1:66">
-      <c r="A39" s="52"/>
-      <c r="B39" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="39">
+      <c r="E41" s="64">
+        <v>46010</v>
+      </c>
+      <c r="F41" s="14">
+        <v>46010</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="32"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="32"/>
+      <c r="AK41" s="32"/>
+      <c r="AL41" s="32"/>
+      <c r="AM41" s="32"/>
+      <c r="AN41" s="32"/>
+      <c r="AO41" s="32"/>
+      <c r="AP41" s="32"/>
+      <c r="AQ41" s="32"/>
+      <c r="AR41" s="32"/>
+      <c r="AS41" s="32"/>
+      <c r="AT41" s="32"/>
+      <c r="AU41" s="32"/>
+      <c r="AV41" s="32"/>
+      <c r="AW41" s="32"/>
+      <c r="AX41" s="32"/>
+      <c r="AY41" s="32"/>
+      <c r="AZ41" s="32"/>
+      <c r="BA41" s="32"/>
+      <c r="BB41" s="32"/>
+      <c r="BC41" s="32"/>
+      <c r="BD41" s="32"/>
+      <c r="BE41" s="32"/>
+      <c r="BF41" s="32"/>
+      <c r="BG41" s="32"/>
+      <c r="BH41" s="32"/>
+      <c r="BI41" s="32"/>
+      <c r="BJ41" s="32"/>
+      <c r="BK41" s="32"/>
+      <c r="BL41" s="32"/>
+      <c r="BM41" s="32"/>
+      <c r="BN41" s="32"/>
+    </row>
+    <row r="42" spans="1:66">
+      <c r="A42" s="82"/>
+      <c r="B42" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="36">
         <v>0</v>
       </c>
-      <c r="D39" s="92" t="str">
-        <f>DATEDIF(E39,F39, "d")+1&amp;"일"</f>
-        <v>2일</v>
-      </c>
-      <c r="E39" s="88">
-        <v>45997</v>
-      </c>
-      <c r="F39" s="14">
-        <v>45998</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="35"/>
-      <c r="AM39" s="35"/>
-      <c r="AN39" s="35"/>
-      <c r="AO39" s="35"/>
-      <c r="AP39" s="35"/>
-      <c r="AQ39" s="35"/>
-      <c r="AR39" s="35"/>
-      <c r="AS39" s="35"/>
-      <c r="AT39" s="35"/>
-      <c r="AU39" s="35"/>
-      <c r="AV39" s="35"/>
-      <c r="AW39" s="35"/>
-      <c r="AX39" s="35"/>
-      <c r="AY39" s="35"/>
-      <c r="AZ39" s="35"/>
-      <c r="BA39" s="35"/>
-      <c r="BB39" s="35"/>
-      <c r="BC39" s="35"/>
-      <c r="BD39" s="35"/>
-      <c r="BE39" s="35"/>
-      <c r="BF39" s="35"/>
-      <c r="BG39" s="35"/>
-      <c r="BH39" s="35"/>
-      <c r="BI39" s="35"/>
-      <c r="BJ39" s="35"/>
-      <c r="BK39" s="35"/>
-      <c r="BL39" s="35"/>
-      <c r="BM39" s="35"/>
-      <c r="BN39" s="35"/>
-    </row>
-    <row r="40" spans="1:66">
-      <c r="A40" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
-      <c r="AG40" s="35"/>
-      <c r="AH40" s="35"/>
-      <c r="AI40" s="35"/>
-      <c r="AJ40" s="35"/>
-      <c r="AK40" s="35"/>
-      <c r="AL40" s="35"/>
-      <c r="AM40" s="35"/>
-      <c r="AN40" s="35"/>
-      <c r="AO40" s="35"/>
-      <c r="AP40" s="35"/>
-      <c r="AQ40" s="35"/>
-      <c r="AR40" s="35"/>
-      <c r="AS40" s="35"/>
-      <c r="AT40" s="35"/>
-      <c r="AU40" s="35"/>
-      <c r="AV40" s="35"/>
-      <c r="AW40" s="35"/>
-      <c r="AX40" s="35"/>
-      <c r="AY40" s="35"/>
-      <c r="AZ40" s="35"/>
-      <c r="BA40" s="35"/>
-      <c r="BB40" s="35"/>
-      <c r="BC40" s="35"/>
-      <c r="BD40" s="35"/>
-      <c r="BE40" s="35"/>
-      <c r="BF40" s="35"/>
-      <c r="BG40" s="35"/>
-      <c r="BH40" s="35"/>
-      <c r="BI40" s="35"/>
-      <c r="BJ40" s="35"/>
-      <c r="BK40" s="35"/>
-      <c r="BL40" s="35"/>
-      <c r="BM40" s="35"/>
-      <c r="BN40" s="35"/>
-    </row>
-    <row r="41" spans="1:66">
-      <c r="A41" s="41"/>
-      <c r="B41" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="39">
-        <v>0</v>
-      </c>
-      <c r="D41" s="92" t="str">
-        <f>DATEDIF(E41,F41, "d")+1&amp;"일"</f>
-        <v>10일</v>
-      </c>
-      <c r="E41" s="88">
-        <v>45999</v>
-      </c>
-      <c r="F41" s="14">
-        <v>46008</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="35"/>
-      <c r="AH41" s="35"/>
-      <c r="AI41" s="35"/>
-      <c r="AJ41" s="35"/>
-      <c r="AK41" s="35"/>
-      <c r="AL41" s="35"/>
-      <c r="AM41" s="35"/>
-      <c r="AN41" s="35"/>
-      <c r="AO41" s="35"/>
-      <c r="AP41" s="35"/>
-      <c r="AQ41" s="35"/>
-      <c r="AR41" s="35"/>
-      <c r="AS41" s="35"/>
-      <c r="AT41" s="35"/>
-      <c r="AU41" s="35"/>
-      <c r="AV41" s="35"/>
-      <c r="AW41" s="35"/>
-      <c r="AX41" s="35"/>
-      <c r="AY41" s="35"/>
-      <c r="AZ41" s="35"/>
-      <c r="BA41" s="35"/>
-      <c r="BB41" s="35"/>
-      <c r="BC41" s="35"/>
-      <c r="BD41" s="35"/>
-      <c r="BE41" s="35"/>
-      <c r="BF41" s="35"/>
-      <c r="BG41" s="35"/>
-      <c r="BH41" s="35"/>
-      <c r="BI41" s="35"/>
-      <c r="BJ41" s="35"/>
-      <c r="BK41" s="35"/>
-      <c r="BL41" s="35"/>
-      <c r="BM41" s="35"/>
-      <c r="BN41" s="35"/>
-    </row>
-    <row r="42" spans="1:66">
-      <c r="A42" s="41"/>
-      <c r="B42" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="39">
-        <v>0</v>
-      </c>
-      <c r="D42" s="92" t="str">
+      <c r="D42" s="66" t="str">
         <f>DATEDIF(E42,F42, "d")+1&amp;"일"</f>
-        <v>10일</v>
-      </c>
-      <c r="E42" s="88">
-        <v>45999</v>
+        <v>1일</v>
+      </c>
+      <c r="E42" s="64">
+        <v>46010</v>
       </c>
       <c r="F42" s="14">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="G42" s="15"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="35"/>
-      <c r="AK42" s="35"/>
-      <c r="AL42" s="35"/>
-      <c r="AM42" s="35"/>
-      <c r="AN42" s="35"/>
-      <c r="AO42" s="35"/>
-      <c r="AP42" s="35"/>
-      <c r="AQ42" s="35"/>
-      <c r="AR42" s="35"/>
-      <c r="AS42" s="35"/>
-      <c r="AT42" s="35"/>
-      <c r="AU42" s="35"/>
-      <c r="AV42" s="35"/>
-      <c r="AW42" s="35"/>
-      <c r="AX42" s="35"/>
-      <c r="AY42" s="35"/>
-      <c r="AZ42" s="35"/>
-      <c r="BA42" s="35"/>
-      <c r="BB42" s="35"/>
-      <c r="BC42" s="35"/>
-      <c r="BD42" s="35"/>
-      <c r="BE42" s="35"/>
-      <c r="BF42" s="35"/>
-      <c r="BG42" s="35"/>
-      <c r="BH42" s="35"/>
-      <c r="BI42" s="35"/>
-      <c r="BJ42" s="35"/>
-      <c r="BK42" s="35"/>
-      <c r="BL42" s="35"/>
-      <c r="BM42" s="35"/>
-      <c r="BN42" s="35"/>
-    </row>
-    <row r="43" spans="1:66">
-      <c r="A43" s="41"/>
-      <c r="B43" s="38" t="s">
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="32"/>
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="32"/>
+      <c r="AO42" s="32"/>
+      <c r="AP42" s="32"/>
+      <c r="AQ42" s="32"/>
+      <c r="AR42" s="32"/>
+      <c r="AS42" s="32"/>
+      <c r="AT42" s="32"/>
+      <c r="AU42" s="32"/>
+      <c r="AV42" s="32"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="32"/>
+      <c r="AY42" s="32"/>
+      <c r="AZ42" s="32"/>
+      <c r="BA42" s="32"/>
+      <c r="BB42" s="32"/>
+      <c r="BC42" s="32"/>
+      <c r="BD42" s="32"/>
+      <c r="BE42" s="32"/>
+      <c r="BF42" s="32"/>
+      <c r="BG42" s="32"/>
+      <c r="BH42" s="32"/>
+      <c r="BI42" s="32"/>
+      <c r="BJ42" s="32"/>
+      <c r="BK42" s="32"/>
+      <c r="BL42" s="32"/>
+      <c r="BM42" s="32"/>
+      <c r="BN42" s="32"/>
+    </row>
+    <row r="44" spans="1:66" ht="15.75" thickBot="1">
+      <c r="B44" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="39">
-        <v>0</v>
-      </c>
-      <c r="D43" s="92" t="str">
-        <f>DATEDIF(E43,F43, "d")+1&amp;"일"</f>
-        <v>1일</v>
-      </c>
-      <c r="E43" s="88">
-        <v>46010</v>
-      </c>
-      <c r="F43" s="14">
-        <v>46010</v>
-      </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="35"/>
-      <c r="AD43" s="35"/>
-      <c r="AE43" s="35"/>
-      <c r="AF43" s="35"/>
-      <c r="AG43" s="35"/>
-      <c r="AH43" s="35"/>
-      <c r="AI43" s="35"/>
-      <c r="AJ43" s="35"/>
-      <c r="AK43" s="35"/>
-      <c r="AL43" s="35"/>
-      <c r="AM43" s="35"/>
-      <c r="AN43" s="35"/>
-      <c r="AO43" s="35"/>
-      <c r="AP43" s="35"/>
-      <c r="AQ43" s="35"/>
-      <c r="AR43" s="35"/>
-      <c r="AS43" s="35"/>
-      <c r="AT43" s="35"/>
-      <c r="AU43" s="35"/>
-      <c r="AV43" s="35"/>
-      <c r="AW43" s="35"/>
-      <c r="AX43" s="35"/>
-      <c r="AY43" s="35"/>
-      <c r="AZ43" s="35"/>
-      <c r="BA43" s="35"/>
-      <c r="BB43" s="35"/>
-      <c r="BC43" s="35"/>
-      <c r="BD43" s="35"/>
-      <c r="BE43" s="35"/>
-      <c r="BF43" s="35"/>
-      <c r="BG43" s="35"/>
-      <c r="BH43" s="35"/>
-      <c r="BI43" s="35"/>
-      <c r="BJ43" s="35"/>
-      <c r="BK43" s="35"/>
-      <c r="BL43" s="35"/>
-      <c r="BM43" s="35"/>
-      <c r="BN43" s="35"/>
-    </row>
-    <row r="44" spans="1:66">
-      <c r="A44" s="93"/>
-      <c r="B44" s="38" t="s">
+      <c r="E44" s="53"/>
+      <c r="F44" s="1"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:66" ht="16.5">
+      <c r="B45" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="39">
-        <v>0</v>
-      </c>
-      <c r="D44" s="92" t="str">
-        <f>DATEDIF(E44,F44, "d")+1&amp;"일"</f>
-        <v>1일</v>
-      </c>
-      <c r="E44" s="88">
-        <v>46010</v>
-      </c>
-      <c r="F44" s="14">
-        <v>46010</v>
-      </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="35"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="35"/>
-      <c r="AD44" s="35"/>
-      <c r="AE44" s="35"/>
-      <c r="AF44" s="35"/>
-      <c r="AG44" s="35"/>
-      <c r="AH44" s="35"/>
-      <c r="AI44" s="35"/>
-      <c r="AJ44" s="35"/>
-      <c r="AK44" s="35"/>
-      <c r="AL44" s="35"/>
-      <c r="AM44" s="35"/>
-      <c r="AN44" s="35"/>
-      <c r="AO44" s="35"/>
-      <c r="AP44" s="35"/>
-      <c r="AQ44" s="35"/>
-      <c r="AR44" s="35"/>
-      <c r="AS44" s="35"/>
-      <c r="AT44" s="35"/>
-      <c r="AU44" s="35"/>
-      <c r="AV44" s="35"/>
-      <c r="AW44" s="35"/>
-      <c r="AX44" s="35"/>
-      <c r="AY44" s="35"/>
-      <c r="AZ44" s="35"/>
-      <c r="BA44" s="35"/>
-      <c r="BB44" s="35"/>
-      <c r="BC44" s="35"/>
-      <c r="BD44" s="35"/>
-      <c r="BE44" s="35"/>
-      <c r="BF44" s="35"/>
-      <c r="BG44" s="35"/>
-      <c r="BH44" s="35"/>
-      <c r="BI44" s="35"/>
-      <c r="BJ44" s="35"/>
-      <c r="BK44" s="35"/>
-      <c r="BL44" s="35"/>
-      <c r="BM44" s="35"/>
-      <c r="BN44" s="35"/>
-    </row>
-    <row r="46" spans="1:66" ht="15.75" thickBot="1">
-      <c r="B46" s="77" t="s">
+      <c r="E45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="I45" s="3"/>
+      <c r="K45" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="40"/>
+    </row>
+    <row r="46" spans="1:66" ht="17.25" thickBot="1">
+      <c r="B46" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="76"/>
-      <c r="F46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="G46" s="1"/>
       <c r="I46" s="3"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="R46" s="41"/>
     </row>
     <row r="47" spans="1:66" ht="16.5">
-      <c r="B47" s="78" t="s">
+      <c r="I47" s="3"/>
+      <c r="K47" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="L47" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="I47" s="3"/>
-      <c r="K47" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="63"/>
-    </row>
-    <row r="48" spans="1:66" ht="17.25" thickBot="1">
-      <c r="B48" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="M47" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="40"/>
+    </row>
+    <row r="48" spans="1:66">
       <c r="I48" s="3"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="64"/>
+      <c r="K48" s="42"/>
+      <c r="M48" s="1"/>
+      <c r="R48" s="41"/>
     </row>
     <row r="49" spans="2:18" ht="16.5">
       <c r="I49" s="3"/>
-      <c r="K49" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="L49" s="74" t="s">
+      <c r="K49" s="42"/>
+      <c r="M49" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="O49" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="M49" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="63"/>
-    </row>
-    <row r="50" spans="2:18">
+      <c r="R49" s="41"/>
+    </row>
+    <row r="50" spans="2:18" ht="16.5">
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="64"/>
+      <c r="K50" s="43"/>
+      <c r="O50" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="P50" s="1"/>
+      <c r="R50" s="41"/>
     </row>
     <row r="51" spans="2:18" ht="16.5">
       <c r="I51" s="3"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="N51" s="59"/>
-      <c r="O51" s="60" t="s">
+      <c r="K51" s="43"/>
+      <c r="O51" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="64"/>
+      <c r="P51" s="1"/>
+      <c r="R51" s="41"/>
     </row>
     <row r="52" spans="2:18" ht="16.5">
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="60" t="s">
+      <c r="H52" s="3"/>
+      <c r="K52" s="43"/>
+      <c r="O52" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="64"/>
+      <c r="P52" s="1"/>
+      <c r="R52" s="41"/>
     </row>
     <row r="53" spans="2:18" ht="16.5">
-      <c r="I53" s="3"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="60" t="s">
+      <c r="H53" s="3"/>
+      <c r="K53" s="43"/>
+      <c r="O53" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="64"/>
+      <c r="P53" s="1"/>
+      <c r="R53" s="41"/>
     </row>
     <row r="54" spans="2:18" ht="16.5">
-      <c r="H54" s="3"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="64"/>
-    </row>
-    <row r="55" spans="2:18" ht="17.25" thickBot="1">
-      <c r="H55" s="3"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="60" t="s">
+      <c r="B54" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="K54" s="42"/>
+      <c r="R54" s="41"/>
+    </row>
+    <row r="55" spans="2:18" ht="16.5">
+      <c r="B55" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="41"/>
+      <c r="K55" s="42"/>
+      <c r="M55" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="N55" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="O55" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="64"/>
+      <c r="R55" s="41"/>
     </row>
     <row r="56" spans="2:18" ht="16.5">
-      <c r="B56" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="63"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="64"/>
+      <c r="B56" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="41"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="K56" s="42"/>
+      <c r="O56" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="R56" s="41"/>
     </row>
     <row r="57" spans="2:18" ht="16.5">
-      <c r="B57" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="64"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="N57" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="O57" s="60" t="s">
+      <c r="B57" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="41"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="K57" s="42"/>
+      <c r="O57" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="64"/>
+      <c r="R57" s="41"/>
     </row>
     <row r="58" spans="2:18" ht="16.5">
-      <c r="B58" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="64"/>
+      <c r="B58" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="41"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="60" t="s">
+      <c r="K58" s="42"/>
+      <c r="O58" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="64"/>
-    </row>
-    <row r="59" spans="2:18" ht="16.5">
-      <c r="B59" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="64"/>
+      <c r="R58" s="41"/>
+    </row>
+    <row r="59" spans="2:18">
+      <c r="B59" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="41"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="60" t="s">
+      <c r="K59" s="42"/>
+      <c r="R59" s="41"/>
+    </row>
+    <row r="60" spans="2:18" ht="16.5">
+      <c r="B60" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="K60" s="42"/>
+      <c r="M60" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="O60" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="64"/>
-    </row>
-    <row r="60" spans="2:18" ht="16.5">
-      <c r="B60" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="64"/>
-      <c r="G60" s="2"/>
-      <c r="I60" s="3"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="58" t="s">
+      <c r="Q60" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="R60" s="41"/>
+    </row>
+    <row r="61" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B61" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="41"/>
+      <c r="I61" s="3"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="64"/>
-    </row>
-    <row r="61" spans="2:18">
-      <c r="B61" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="64"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="64"/>
-    </row>
-    <row r="62" spans="2:18" ht="16.5">
-      <c r="B62" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="64"/>
-      <c r="H62" s="3"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="47"/>
+    </row>
+    <row r="62" spans="2:18">
+      <c r="B62" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="41"/>
       <c r="I62" s="3"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="N62" s="59"/>
-      <c r="O62" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="R62" s="64"/>
-    </row>
-    <row r="63" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B63" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="64"/>
+    </row>
+    <row r="63" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B63" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="45"/>
+      <c r="D63" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="47"/>
       <c r="I63" s="3"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="70"/>
     </row>
     <row r="64" spans="2:18">
-      <c r="B64" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="59"/>
-      <c r="D64" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="64"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B65" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="70"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="H67" s="86"/>
+    <row r="65" spans="8:8">
+      <c r="H65" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:F38"/>
     <mergeCell ref="B29:F29"/>
-    <mergeCell ref="A12:A39"/>
+    <mergeCell ref="A12:A37"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:W1"/>
     <mergeCell ref="A2:A3"/>
@@ -5568,10 +5326,6 @@
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C34:F34"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
